--- a/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.738134320546184</v>
+        <v>0.7381343205461877</v>
       </c>
       <c r="D2">
-        <v>0.7619190004593109</v>
+        <v>0.7619190004593143</v>
       </c>
       <c r="E2">
-        <v>0.7738754628189978</v>
+        <v>0.7738754628190009</v>
       </c>
       <c r="F2">
-        <v>0.7319488584159519</v>
+        <v>0.7319488584159554</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7724679627918474</v>
+        <v>0.7724679627918507</v>
       </c>
       <c r="K2">
-        <v>0.7781210309260814</v>
+        <v>0.7781210309260848</v>
       </c>
       <c r="L2">
-        <v>0.7897442609241306</v>
+        <v>0.7897442609241337</v>
       </c>
       <c r="M2">
-        <v>0.7490525867865974</v>
+        <v>0.7490525867866007</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8056326185191888</v>
+        <v>0.8056326185191869</v>
       </c>
       <c r="D3">
-        <v>0.8241394390995535</v>
+        <v>0.8241394390995518</v>
       </c>
       <c r="E3">
-        <v>0.8325611657809657</v>
+        <v>0.832561165780964</v>
       </c>
       <c r="F3">
-        <v>0.8022302330892356</v>
+        <v>0.8022302330892337</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8333115112372717</v>
+        <v>0.8333115112372701</v>
       </c>
       <c r="K3">
-        <v>0.8376575469947776</v>
+        <v>0.8376575469947758</v>
       </c>
       <c r="L3">
-        <v>0.8459044466920097</v>
+        <v>0.8459044466920079</v>
       </c>
       <c r="M3">
-        <v>0.8162261035633318</v>
+        <v>0.81622610356333</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.835140843524284</v>
+        <v>0.8351408435242758</v>
       </c>
       <c r="D4">
-        <v>0.8514504508568428</v>
+        <v>0.8514504508568348</v>
       </c>
       <c r="E4">
-        <v>0.8583764081849038</v>
+        <v>0.8583764081848968</v>
       </c>
       <c r="F4">
-        <v>0.8329514928448941</v>
+        <v>0.832951492844886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8599643038482304</v>
+        <v>0.8599643038482225</v>
       </c>
       <c r="K4">
-        <v>0.8637479730425827</v>
+        <v>0.8637479730425747</v>
       </c>
       <c r="L4">
-        <v>0.8705494571359815</v>
+        <v>0.8705494571359746</v>
       </c>
       <c r="M4">
-        <v>0.8455947688180951</v>
+        <v>0.8455947688180873</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8459503411668891</v>
+        <v>0.8459503411668871</v>
       </c>
       <c r="D5">
-        <v>0.8614678175742976</v>
+        <v>0.8614678175742958</v>
       </c>
       <c r="E5">
-        <v>0.8678513368783828</v>
+        <v>0.8678513368783808</v>
       </c>
       <c r="F5">
-        <v>0.8442076194405937</v>
+        <v>0.8442076194405916</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8697314024185837</v>
+        <v>0.8697314024185815</v>
       </c>
       <c r="K5">
-        <v>0.873309707549302</v>
+        <v>0.8733097075492999</v>
       </c>
       <c r="L5">
-        <v>0.8795847430195429</v>
+        <v>0.8795847430195409</v>
       </c>
       <c r="M5">
-        <v>0.8563535174403136</v>
+        <v>0.8563535174403115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8476928397182772</v>
+        <v>0.8476928397182754</v>
       </c>
       <c r="D6">
-        <v>0.8630831903741192</v>
+        <v>0.8630831903741173</v>
       </c>
       <c r="E6">
-        <v>0.8693795045798234</v>
+        <v>0.8693795045798215</v>
       </c>
       <c r="F6">
-        <v>0.8460222826914815</v>
+        <v>0.8460222826914796</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8713059551476866</v>
+        <v>0.8713059551476846</v>
       </c>
       <c r="K6">
-        <v>0.8748511729308343</v>
+        <v>0.8748511729308323</v>
       </c>
       <c r="L6">
-        <v>0.8810414645424969</v>
+        <v>0.8810414645424951</v>
       </c>
       <c r="M6">
-        <v>0.8580878519705012</v>
+        <v>0.8580878519704993</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8352905062920075</v>
+        <v>0.8352905062920147</v>
       </c>
       <c r="D7">
-        <v>0.8515891033057751</v>
+        <v>0.8515891033057817</v>
       </c>
       <c r="E7">
-        <v>0.8585075322287065</v>
+        <v>0.858507532228713</v>
       </c>
       <c r="F7">
-        <v>0.833107328334576</v>
+        <v>0.8331073283345835</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8600995255645708</v>
+        <v>0.8600995255645779</v>
       </c>
       <c r="K7">
-        <v>0.8638803497952009</v>
+        <v>0.8638803497952076</v>
       </c>
       <c r="L7">
-        <v>0.870674535489165</v>
+        <v>0.8706745354891713</v>
       </c>
       <c r="M7">
-        <v>0.8457437276637007</v>
+        <v>0.8457437276637081</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D8">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E8">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F8">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K8">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L8">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M8">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D9">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E9">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F9">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K9">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L9">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M9">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D10">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E10">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F10">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K10">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L10">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M10">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D11">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E11">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F11">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K11">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L11">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M11">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D12">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E12">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F12">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K12">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L12">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M12">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D13">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E13">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F13">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K13">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L13">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M13">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D14">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E14">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F14">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K14">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L14">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M14">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D15">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E15">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F15">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K15">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L15">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M15">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D16">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E16">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F16">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K16">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L16">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M16">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D17">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E17">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F17">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K17">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L17">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M17">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D18">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E18">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F18">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K18">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L18">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M18">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D19">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E19">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F19">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K19">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L19">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M19">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D20">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E20">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F20">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K20">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L20">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M20">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D21">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E21">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F21">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K21">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L21">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M21">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D22">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E22">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F22">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K22">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L22">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M22">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D23">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E23">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F23">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K23">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L23">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M23">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D24">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E24">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F24">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K24">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L24">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M24">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7661130738152613</v>
+        <v>0.7661130738152599</v>
       </c>
       <c r="D25">
-        <v>0.7876606104759406</v>
+        <v>0.7876606104759393</v>
       </c>
       <c r="E25">
-        <v>0.7981293684309454</v>
+        <v>0.7981293684309443</v>
       </c>
       <c r="F25">
-        <v>0.761087408819374</v>
+        <v>0.761087408819373</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.797659989546315</v>
+        <v>0.7976599895463137</v>
       </c>
       <c r="K25">
-        <v>0.8027666127669013</v>
+        <v>0.8027666127669002</v>
       </c>
       <c r="L25">
-        <v>0.8129758615363656</v>
+        <v>0.8129758615363644</v>
       </c>
       <c r="M25">
-        <v>0.7768959371611073</v>
+        <v>0.7768959371611061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7381343205461877</v>
+        <v>0.738134320546184</v>
       </c>
       <c r="D2">
-        <v>0.7619190004593143</v>
+        <v>0.7619190004593109</v>
       </c>
       <c r="E2">
-        <v>0.7738754628190009</v>
+        <v>0.7738754628189978</v>
       </c>
       <c r="F2">
-        <v>0.7319488584159554</v>
+        <v>0.7319488584159519</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7724679627918507</v>
+        <v>0.7724679627918474</v>
       </c>
       <c r="K2">
-        <v>0.7781210309260848</v>
+        <v>0.7781210309260814</v>
       </c>
       <c r="L2">
-        <v>0.7897442609241337</v>
+        <v>0.7897442609241306</v>
       </c>
       <c r="M2">
-        <v>0.7490525867866007</v>
+        <v>0.7490525867865974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8056326185191869</v>
+        <v>0.8056326185191888</v>
       </c>
       <c r="D3">
-        <v>0.8241394390995518</v>
+        <v>0.8241394390995535</v>
       </c>
       <c r="E3">
-        <v>0.832561165780964</v>
+        <v>0.8325611657809657</v>
       </c>
       <c r="F3">
-        <v>0.8022302330892337</v>
+        <v>0.8022302330892356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8333115112372701</v>
+        <v>0.8333115112372717</v>
       </c>
       <c r="K3">
-        <v>0.8376575469947758</v>
+        <v>0.8376575469947776</v>
       </c>
       <c r="L3">
-        <v>0.8459044466920079</v>
+        <v>0.8459044466920097</v>
       </c>
       <c r="M3">
-        <v>0.81622610356333</v>
+        <v>0.8162261035633318</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8351408435242758</v>
+        <v>0.835140843524284</v>
       </c>
       <c r="D4">
-        <v>0.8514504508568348</v>
+        <v>0.8514504508568428</v>
       </c>
       <c r="E4">
-        <v>0.8583764081848968</v>
+        <v>0.8583764081849038</v>
       </c>
       <c r="F4">
-        <v>0.832951492844886</v>
+        <v>0.8329514928448941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8599643038482225</v>
+        <v>0.8599643038482304</v>
       </c>
       <c r="K4">
-        <v>0.8637479730425747</v>
+        <v>0.8637479730425827</v>
       </c>
       <c r="L4">
-        <v>0.8705494571359746</v>
+        <v>0.8705494571359815</v>
       </c>
       <c r="M4">
-        <v>0.8455947688180873</v>
+        <v>0.8455947688180951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8459503411668871</v>
+        <v>0.8459503411668891</v>
       </c>
       <c r="D5">
-        <v>0.8614678175742958</v>
+        <v>0.8614678175742976</v>
       </c>
       <c r="E5">
-        <v>0.8678513368783808</v>
+        <v>0.8678513368783828</v>
       </c>
       <c r="F5">
-        <v>0.8442076194405916</v>
+        <v>0.8442076194405937</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8697314024185815</v>
+        <v>0.8697314024185837</v>
       </c>
       <c r="K5">
-        <v>0.8733097075492999</v>
+        <v>0.873309707549302</v>
       </c>
       <c r="L5">
-        <v>0.8795847430195409</v>
+        <v>0.8795847430195429</v>
       </c>
       <c r="M5">
-        <v>0.8563535174403115</v>
+        <v>0.8563535174403136</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8476928397182754</v>
+        <v>0.8476928397182772</v>
       </c>
       <c r="D6">
-        <v>0.8630831903741173</v>
+        <v>0.8630831903741192</v>
       </c>
       <c r="E6">
-        <v>0.8693795045798215</v>
+        <v>0.8693795045798234</v>
       </c>
       <c r="F6">
-        <v>0.8460222826914796</v>
+        <v>0.8460222826914815</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8713059551476846</v>
+        <v>0.8713059551476866</v>
       </c>
       <c r="K6">
-        <v>0.8748511729308323</v>
+        <v>0.8748511729308343</v>
       </c>
       <c r="L6">
-        <v>0.8810414645424951</v>
+        <v>0.8810414645424969</v>
       </c>
       <c r="M6">
-        <v>0.8580878519704993</v>
+        <v>0.8580878519705012</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8352905062920147</v>
+        <v>0.8352905062920075</v>
       </c>
       <c r="D7">
-        <v>0.8515891033057817</v>
+        <v>0.8515891033057751</v>
       </c>
       <c r="E7">
-        <v>0.858507532228713</v>
+        <v>0.8585075322287065</v>
       </c>
       <c r="F7">
-        <v>0.8331073283345835</v>
+        <v>0.833107328334576</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8600995255645779</v>
+        <v>0.8600995255645708</v>
       </c>
       <c r="K7">
-        <v>0.8638803497952076</v>
+        <v>0.8638803497952009</v>
       </c>
       <c r="L7">
-        <v>0.8706745354891713</v>
+        <v>0.870674535489165</v>
       </c>
       <c r="M7">
-        <v>0.8457437276637081</v>
+        <v>0.8457437276637007</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D8">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E8">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F8">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K8">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L8">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M8">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D9">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E9">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F9">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K9">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L9">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M9">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D10">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E10">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F10">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K10">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L10">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M10">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D11">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E11">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F11">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K11">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L11">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M11">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D12">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E12">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F12">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K12">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L12">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M12">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D13">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E13">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F13">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K13">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L13">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M13">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D14">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E14">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F14">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K14">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L14">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M14">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D15">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E15">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F15">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K15">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L15">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M15">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D16">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E16">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F16">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K16">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L16">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M16">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D17">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E17">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F17">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K17">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L17">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M17">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D18">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E18">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F18">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K18">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L18">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M18">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D19">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E19">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F19">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K19">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L19">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M19">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D20">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E20">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F20">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K20">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L20">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M20">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D21">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E21">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F21">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K21">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L21">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M21">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D22">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E22">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F22">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K22">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L22">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M22">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D23">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E23">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F23">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K23">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L23">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M23">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D24">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E24">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F24">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K24">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L24">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M24">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7661130738152599</v>
+        <v>0.7661130738152613</v>
       </c>
       <c r="D25">
-        <v>0.7876606104759393</v>
+        <v>0.7876606104759406</v>
       </c>
       <c r="E25">
-        <v>0.7981293684309443</v>
+        <v>0.7981293684309454</v>
       </c>
       <c r="F25">
-        <v>0.761087408819373</v>
+        <v>0.761087408819374</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7976599895463137</v>
+        <v>0.797659989546315</v>
       </c>
       <c r="K25">
-        <v>0.8027666127669002</v>
+        <v>0.8027666127669013</v>
       </c>
       <c r="L25">
-        <v>0.8129758615363644</v>
+        <v>0.8129758615363656</v>
       </c>
       <c r="M25">
-        <v>0.7768959371611061</v>
+        <v>0.7768959371611073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.738134320546184</v>
+        <v>0.7479436256071101</v>
       </c>
       <c r="D2">
-        <v>0.7619190004593109</v>
+        <v>0.7709373053550659</v>
       </c>
       <c r="E2">
-        <v>0.7738754628189978</v>
+        <v>0.782298494040078</v>
       </c>
       <c r="F2">
-        <v>0.7319488584159519</v>
+        <v>0.741958089965055</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7724679627918474</v>
+        <v>0.7815898906932536</v>
       </c>
       <c r="K2">
-        <v>0.7781210309260814</v>
+        <v>0.7868866855485817</v>
       </c>
       <c r="L2">
-        <v>0.7897442609241306</v>
+        <v>0.7979408334348895</v>
       </c>
       <c r="M2">
-        <v>0.7490525867865974</v>
+        <v>0.7587495001478923</v>
+      </c>
+      <c r="N2">
+        <v>0.7826998379876515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8056326185191888</v>
+        <v>0.812389798857025</v>
       </c>
       <c r="D3">
-        <v>0.8241394390995535</v>
+        <v>0.8303885466766845</v>
       </c>
       <c r="E3">
-        <v>0.8325611657809657</v>
+        <v>0.8383907293984534</v>
       </c>
       <c r="F3">
-        <v>0.8022302330892356</v>
+        <v>0.8090413985508834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8333115112372717</v>
+        <v>0.8397346491013161</v>
       </c>
       <c r="K3">
-        <v>0.8376575469947776</v>
+        <v>0.8437764810790773</v>
       </c>
       <c r="L3">
-        <v>0.8459044466920097</v>
+        <v>0.8516157012563678</v>
       </c>
       <c r="M3">
-        <v>0.8162261035633318</v>
+        <v>0.8228850537876201</v>
+      </c>
+      <c r="N3">
+        <v>0.8409271686219504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.835140843524284</v>
+        <v>0.8412724540138068</v>
       </c>
       <c r="D4">
-        <v>0.8514504508568428</v>
+        <v>0.8571319595807982</v>
       </c>
       <c r="E4">
-        <v>0.8583764081849038</v>
+        <v>0.8636733429633636</v>
       </c>
       <c r="F4">
-        <v>0.8329514928448941</v>
+        <v>0.8391047431884303</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8599643038482304</v>
+        <v>0.8658399184737231</v>
       </c>
       <c r="K4">
-        <v>0.8637479730425827</v>
+        <v>0.8693271812677236</v>
       </c>
       <c r="L4">
-        <v>0.8705494571359815</v>
+        <v>0.8757529407391192</v>
       </c>
       <c r="M4">
-        <v>0.8455947688180951</v>
+        <v>0.851630801173682</v>
+      </c>
+      <c r="N4">
+        <v>0.8670695104711825</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8459503411668891</v>
+        <v>0.8519044929929674</v>
       </c>
       <c r="D5">
-        <v>0.8614678175742976</v>
+        <v>0.8669883680825806</v>
       </c>
       <c r="E5">
-        <v>0.8678513368783828</v>
+        <v>0.8729970985812942</v>
       </c>
       <c r="F5">
-        <v>0.8442076194405937</v>
+        <v>0.8501737869927698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8697314024185837</v>
+        <v>0.8754526453521495</v>
       </c>
       <c r="K5">
-        <v>0.873309707549302</v>
+        <v>0.8787363193582327</v>
       </c>
       <c r="L5">
-        <v>0.8795847430195429</v>
+        <v>0.8846445426752221</v>
       </c>
       <c r="M5">
-        <v>0.8563535174403136</v>
+        <v>0.8622127900924542</v>
+      </c>
+      <c r="N5">
+        <v>0.8766958885243715</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8476928397182772</v>
+        <v>0.8536204572729791</v>
       </c>
       <c r="D6">
-        <v>0.8630831903741192</v>
+        <v>0.8685796778794155</v>
       </c>
       <c r="E6">
-        <v>0.8693795045798234</v>
+        <v>0.874502660009318</v>
       </c>
       <c r="F6">
-        <v>0.8460222826914815</v>
+        <v>0.8519604524236973</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8713059551476866</v>
+        <v>0.877004166408945</v>
       </c>
       <c r="K6">
-        <v>0.8748511729308343</v>
+        <v>0.8802549961593306</v>
       </c>
       <c r="L6">
-        <v>0.8810414645424969</v>
+        <v>0.8860798008612103</v>
       </c>
       <c r="M6">
-        <v>0.8580878519705012</v>
+        <v>0.8639206919249062</v>
+      </c>
+      <c r="N6">
+        <v>0.8782496129190295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8352905062920075</v>
+        <v>0.8414194991149805</v>
       </c>
       <c r="D7">
-        <v>0.8515891033057751</v>
+        <v>0.8572682374716576</v>
       </c>
       <c r="E7">
-        <v>0.8585075322287065</v>
+        <v>0.8638022372972811</v>
       </c>
       <c r="F7">
-        <v>0.833107328334576</v>
+        <v>0.8392578209185737</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8600995255645708</v>
+        <v>0.8659728591927843</v>
       </c>
       <c r="K7">
-        <v>0.8638803497952009</v>
+        <v>0.8694573049489733</v>
       </c>
       <c r="L7">
-        <v>0.870674535489165</v>
+        <v>0.8758758980717168</v>
       </c>
       <c r="M7">
-        <v>0.8457437276637007</v>
+        <v>0.8517771528872554</v>
+      </c>
+      <c r="N7">
+        <v>0.8672026399813133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D8">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E8">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F8">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K8">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L8">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M8">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N8">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D9">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E9">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F9">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K9">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L9">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M9">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N9">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D10">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E10">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F10">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K10">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L10">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M10">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N10">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D11">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E11">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F11">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K11">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L11">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M11">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N11">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D12">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E12">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F12">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K12">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L12">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M12">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N12">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D13">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E13">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F13">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K13">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L13">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M13">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N13">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D14">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E14">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F14">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K14">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L14">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M14">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N14">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D15">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E15">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F15">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K15">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L15">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M15">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N15">
+        <v>0.8064307706032129</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D16">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E16">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F16">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K16">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L16">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M16">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N16">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D17">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E17">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F17">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K17">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L17">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M17">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N17">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D18">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E18">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F18">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K18">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L18">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M18">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N18">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D19">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E19">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F19">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K19">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L19">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M19">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N19">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D20">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E20">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F20">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K20">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L20">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M20">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N20">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D21">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E21">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F21">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K21">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L21">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M21">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N21">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D22">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E22">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F22">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K22">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L22">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M22">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N22">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D23">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E23">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F23">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K23">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L23">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M23">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N23">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D24">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E24">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F24">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K24">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L24">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M24">
-        <v>0.7768959371611073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N24">
+        <v>0.8064307706032129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7661130738152613</v>
+        <v>0.7742355193310274</v>
       </c>
       <c r="D25">
-        <v>0.7876606104759406</v>
+        <v>0.795148587241025</v>
       </c>
       <c r="E25">
-        <v>0.7981293684309454</v>
+        <v>0.8051198872766543</v>
       </c>
       <c r="F25">
-        <v>0.761087408819374</v>
+        <v>0.7693303735676478</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.797659989546315</v>
+        <v>0.8052871704534393</v>
       </c>
       <c r="K25">
-        <v>0.8027666127669013</v>
+        <v>0.810068033902954</v>
       </c>
       <c r="L25">
-        <v>0.8129758615363656</v>
+        <v>0.8197981313751996</v>
       </c>
       <c r="M25">
-        <v>0.7768959371611073</v>
+        <v>0.7849139176298889</v>
+      </c>
+      <c r="N25">
+        <v>0.8064307706032129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.7479436256071101</v>
+        <v>0.7479662809389407</v>
       </c>
       <c r="D2">
-        <v>0.7709373053550659</v>
+        <v>0.760843118226684</v>
       </c>
       <c r="E2">
-        <v>0.782298494040078</v>
+        <v>0.7836619593604618</v>
       </c>
       <c r="F2">
-        <v>0.741958089965055</v>
+        <v>0.7030410351091199</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.015825087575938</v>
+      </c>
       <c r="J2">
-        <v>0.7815898906932536</v>
+        <v>0.7816109894129443</v>
       </c>
       <c r="K2">
-        <v>0.7868866855485817</v>
+        <v>0.7770758373527116</v>
       </c>
       <c r="L2">
-        <v>0.7979408334348895</v>
+        <v>0.7992682620333081</v>
       </c>
       <c r="M2">
-        <v>0.7587495001478923</v>
+        <v>0.7211169399375654</v>
       </c>
       <c r="N2">
-        <v>0.7826998379876515</v>
+        <v>0.7827209666699441</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.812389798857025</v>
+        <v>0.8200971653548409</v>
       </c>
       <c r="D3">
-        <v>0.8303885466766845</v>
+        <v>0.8302432314336285</v>
       </c>
       <c r="E3">
-        <v>0.8383907293984534</v>
+        <v>0.8461435093107686</v>
       </c>
       <c r="F3">
-        <v>0.8090413985508834</v>
+        <v>0.7876825266257541</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.023437369975567</v>
+      </c>
       <c r="J3">
-        <v>0.8397346491013161</v>
+        <v>0.8470706629359229</v>
       </c>
       <c r="K3">
-        <v>0.8437764810790773</v>
+        <v>0.8436341634840626</v>
       </c>
       <c r="L3">
-        <v>0.8516157012563678</v>
+        <v>0.8592144557136978</v>
       </c>
       <c r="M3">
-        <v>0.8228850537876201</v>
+        <v>0.8020153369164904</v>
       </c>
       <c r="N3">
-        <v>0.8409271686219504</v>
+        <v>0.8482736004376549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.8412724540138068</v>
+        <v>0.8501591428977584</v>
       </c>
       <c r="D4">
-        <v>0.8571319595807982</v>
+        <v>0.8592440976680275</v>
       </c>
       <c r="E4">
-        <v>0.8636733429633636</v>
+        <v>0.8723282004689549</v>
       </c>
       <c r="F4">
-        <v>0.8391047431884303</v>
+        <v>0.8224525036026232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.026638772121055</v>
+      </c>
       <c r="J4">
-        <v>0.8658399184737231</v>
+        <v>0.8743648634714315</v>
       </c>
       <c r="K4">
-        <v>0.8693271812677236</v>
+        <v>0.8714017360256345</v>
       </c>
       <c r="L4">
-        <v>0.8757529407391192</v>
+        <v>0.8842582593062718</v>
       </c>
       <c r="M4">
-        <v>0.851630801173682</v>
+        <v>0.8353011066812389</v>
       </c>
       <c r="N4">
-        <v>0.8670695104711825</v>
+        <v>0.8756065618686126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.8519044929929674</v>
+        <v>0.8610868056739717</v>
       </c>
       <c r="D5">
-        <v>0.8669883680825806</v>
+        <v>0.8697955258991372</v>
       </c>
       <c r="E5">
-        <v>0.8729970985812942</v>
+        <v>0.8818621747869247</v>
       </c>
       <c r="F5">
-        <v>0.8501737869927698</v>
+        <v>0.8350422490951238</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.02780173618778</v>
+      </c>
       <c r="J5">
-        <v>0.8754526453521495</v>
+        <v>0.8842846537970246</v>
       </c>
       <c r="K5">
-        <v>0.8787363193582327</v>
+        <v>0.8814962994972145</v>
       </c>
       <c r="L5">
-        <v>0.8846445426752221</v>
+        <v>0.8933645445210967</v>
       </c>
       <c r="M5">
-        <v>0.8622127900924542</v>
+        <v>0.8473562436407993</v>
       </c>
       <c r="N5">
-        <v>0.8766958885243715</v>
+        <v>0.8855404394342842</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.8536204572729791</v>
+        <v>0.8628450906814792</v>
       </c>
       <c r="D6">
-        <v>0.8685796778794155</v>
+        <v>0.8714937151003164</v>
       </c>
       <c r="E6">
-        <v>0.874502660009318</v>
+        <v>0.8833969004721814</v>
       </c>
       <c r="F6">
-        <v>0.8519604524236973</v>
+        <v>0.8370658819361602</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.027988707163963</v>
+      </c>
       <c r="J6">
-        <v>0.877004166408945</v>
+        <v>0.8858806037395351</v>
       </c>
       <c r="K6">
-        <v>0.8802549961593306</v>
+        <v>0.8831205165483803</v>
       </c>
       <c r="L6">
-        <v>0.8860798008612103</v>
+        <v>0.894829784343403</v>
       </c>
       <c r="M6">
-        <v>0.8639206919249062</v>
+        <v>0.8492940008319171</v>
       </c>
       <c r="N6">
-        <v>0.8782496129190295</v>
+        <v>0.8871386558087706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.8414194991149805</v>
+        <v>0.8503106968032683</v>
       </c>
       <c r="D7">
-        <v>0.8572682374716576</v>
+        <v>0.8593904006793209</v>
       </c>
       <c r="E7">
-        <v>0.8638022372972811</v>
+        <v>0.8724603731389711</v>
       </c>
       <c r="F7">
-        <v>0.8392578209185737</v>
+        <v>0.8226272688914832</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.026654909630438</v>
+      </c>
       <c r="J7">
-        <v>0.8659728591927843</v>
+        <v>0.8745024497943275</v>
       </c>
       <c r="K7">
-        <v>0.8694573049489733</v>
+        <v>0.8715417358379739</v>
       </c>
       <c r="L7">
-        <v>0.8758758980717168</v>
+        <v>0.8843845488890979</v>
       </c>
       <c r="M7">
-        <v>0.8517771528872554</v>
+        <v>0.8354684449225729</v>
       </c>
       <c r="N7">
-        <v>0.8672026399813133</v>
+        <v>0.8757443435798683</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D8">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E8">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F8">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J8">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K8">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L8">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M8">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N8">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D9">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E9">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F9">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J9">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K9">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L9">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M9">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N9">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D10">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E10">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F10">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J10">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K10">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L10">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M10">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N10">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D11">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E11">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F11">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J11">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K11">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L11">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M11">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N11">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D12">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E12">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F12">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J12">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K12">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L12">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M12">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N12">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D13">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E13">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F13">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J13">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K13">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L13">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M13">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N13">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D14">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E14">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F14">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J14">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K14">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L14">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M14">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N14">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D15">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E15">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F15">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J15">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K15">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L15">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M15">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N15">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D16">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E16">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F16">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J16">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K16">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L16">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M16">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N16">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D17">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E17">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F17">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J17">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K17">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L17">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M17">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N17">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D18">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E18">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F18">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J18">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K18">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L18">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M18">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N18">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D19">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E19">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F19">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J19">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K19">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L19">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M19">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N19">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D20">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E20">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F20">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J20">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K20">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L20">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M20">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N20">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D21">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E21">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F21">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J21">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K21">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L21">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M21">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N21">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D22">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E22">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F22">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J22">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K22">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L22">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M22">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N22">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D23">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E23">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F23">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J23">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K23">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L23">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M23">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N23">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D24">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E24">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F24">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J24">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K24">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L24">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M24">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N24">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.7742355193310274</v>
+        <v>0.7788580481277084</v>
       </c>
       <c r="D25">
-        <v>0.795148587241025</v>
+        <v>0.7905302039122427</v>
       </c>
       <c r="E25">
-        <v>0.8051198872766543</v>
+        <v>0.810351354505789</v>
       </c>
       <c r="F25">
-        <v>0.7693303735676478</v>
+        <v>0.7395525239906658</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.019065596812034</v>
+      </c>
       <c r="J25">
-        <v>0.8052871704534393</v>
+        <v>0.8096345962235705</v>
       </c>
       <c r="K25">
-        <v>0.810068033902954</v>
+        <v>0.8055641497275174</v>
       </c>
       <c r="L25">
-        <v>0.8197981313751996</v>
+        <v>0.8249062284280393</v>
       </c>
       <c r="M25">
-        <v>0.7849139176298889</v>
+        <v>0.7559814419516249</v>
       </c>
       <c r="N25">
-        <v>0.8064307706032129</v>
+        <v>0.810784370216594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.006781328996645</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.009427242717384</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.007469741675786</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.004957803479274</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.012056793853615</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.012300492996876</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.010348934594901</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.007844659210402</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.013494030585425</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.016182097052542</v>
+      </c>
+      <c r="D3">
+        <v>1.018738777708025</v>
+      </c>
+      <c r="E3">
+        <v>1.015906148407092</v>
+      </c>
+      <c r="F3">
+        <v>1.015149686668367</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.023504579208683</v>
+      </c>
+      <c r="J3">
+        <v>1.021043712693857</v>
+      </c>
+      <c r="K3">
+        <v>1.02139219646206</v>
+      </c>
+      <c r="L3">
+        <v>1.018567405221498</v>
+      </c>
+      <c r="M3">
+        <v>1.017813044680925</v>
+      </c>
+      <c r="N3">
+        <v>1.022493711881233</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.022069678022929</v>
+      </c>
+      <c r="D4">
+        <v>1.024570191039384</v>
+      </c>
+      <c r="E4">
+        <v>1.021184247298212</v>
+      </c>
+      <c r="F4">
+        <v>1.021537696858124</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.023443335729026</v>
+      </c>
+      <c r="J4">
+        <v>1.026668295652949</v>
+      </c>
+      <c r="K4">
+        <v>1.027083408399627</v>
+      </c>
+      <c r="L4">
+        <v>1.023706266106982</v>
+      </c>
+      <c r="M4">
+        <v>1.024058793962962</v>
+      </c>
+      <c r="N4">
+        <v>1.028126282393276</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.024501351802562</v>
+      </c>
+      <c r="D5">
+        <v>1.026978595387781</v>
+      </c>
+      <c r="E5">
+        <v>1.023362867982023</v>
+      </c>
+      <c r="F5">
+        <v>1.024177255296572</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.023416932628352</v>
+      </c>
+      <c r="J5">
+        <v>1.028990440781629</v>
+      </c>
+      <c r="K5">
+        <v>1.029433310075613</v>
+      </c>
+      <c r="L5">
+        <v>1.025826731503941</v>
+      </c>
+      <c r="M5">
+        <v>1.026639052109098</v>
+      </c>
+      <c r="N5">
+        <v>1.030451725234392</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.024907181333389</v>
+      </c>
+      <c r="D6">
+        <v>1.027380537126936</v>
+      </c>
+      <c r="E6">
+        <v>1.023726386617612</v>
+      </c>
+      <c r="F6">
+        <v>1.024617850032744</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.023412460900047</v>
+      </c>
+      <c r="J6">
+        <v>1.029377937690293</v>
+      </c>
+      <c r="K6">
+        <v>1.029825453245453</v>
+      </c>
+      <c r="L6">
+        <v>1.026180506662503</v>
+      </c>
+      <c r="M6">
+        <v>1.027069718172666</v>
+      </c>
+      <c r="N6">
+        <v>1.030839772433113</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.022102336847577</v>
+      </c>
+      <c r="D7">
+        <v>1.024602537628113</v>
+      </c>
+      <c r="E7">
+        <v>1.021213512724402</v>
+      </c>
+      <c r="F7">
+        <v>1.021573142942343</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.02344298551034</v>
+      </c>
+      <c r="J7">
+        <v>1.026699487018889</v>
+      </c>
+      <c r="K7">
+        <v>1.027114971615791</v>
+      </c>
+      <c r="L7">
+        <v>1.023734753022214</v>
+      </c>
+      <c r="M7">
+        <v>1.024093445757</v>
+      </c>
+      <c r="N7">
+        <v>1.028157518054533</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.010000910656394</v>
+      </c>
+      <c r="D8">
+        <v>1.012616321124092</v>
+      </c>
+      <c r="E8">
+        <v>1.010360211933315</v>
+      </c>
+      <c r="F8">
+        <v>1.008447282519777</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.023565007130014</v>
+      </c>
+      <c r="J8">
+        <v>1.015135450709926</v>
+      </c>
+      <c r="K8">
+        <v>1.015414822317698</v>
+      </c>
+      <c r="L8">
+        <v>1.01316535424687</v>
+      </c>
+      <c r="M8">
+        <v>1.01125808110262</v>
+      </c>
+      <c r="N8">
+        <v>1.016577059487597</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>0.9870109449590435</v>
+      </c>
+      <c r="D9">
+        <v>0.9898431122916143</v>
+      </c>
+      <c r="E9">
+        <v>0.9896965035207415</v>
+      </c>
+      <c r="F9">
+        <v>0.9835512614883062</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.023759139049229</v>
+      </c>
+      <c r="J9">
+        <v>0.9931348337269106</v>
+      </c>
+      <c r="K9">
+        <v>0.993163996434531</v>
+      </c>
+      <c r="L9">
+        <v>0.9930179164424058</v>
+      </c>
+      <c r="M9">
+        <v>0.9868949953183846</v>
+      </c>
+      <c r="N9">
+        <v>0.9945451991049605</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>0.9702857821178122</v>
+      </c>
+      <c r="D10">
+        <v>0.9732745111104455</v>
+      </c>
+      <c r="E10">
+        <v>0.974633327443954</v>
+      </c>
+      <c r="F10">
+        <v>0.9654660990841575</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.023874603872166</v>
+      </c>
+      <c r="J10">
+        <v>0.9771071458585489</v>
+      </c>
+      <c r="K10">
+        <v>0.9769602844019771</v>
+      </c>
+      <c r="L10">
+        <v>0.978313533074162</v>
+      </c>
+      <c r="M10">
+        <v>0.9691842059921995</v>
+      </c>
+      <c r="N10">
+        <v>0.9784947500814241</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>0.9626341206639842</v>
+      </c>
+      <c r="D11">
+        <v>0.9656942969840292</v>
+      </c>
+      <c r="E11">
+        <v>0.967734937052353</v>
+      </c>
+      <c r="F11">
+        <v>0.9571983103797806</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.023921309042974</v>
+      </c>
+      <c r="J11">
+        <v>0.9697691236240698</v>
+      </c>
+      <c r="K11">
+        <v>0.9695432262412114</v>
+      </c>
+      <c r="L11">
+        <v>0.9715750410205032</v>
+      </c>
+      <c r="M11">
+        <v>0.961084436422235</v>
+      </c>
+      <c r="N11">
+        <v>0.971146307013689</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>0.959722285819313</v>
+      </c>
+      <c r="D12">
+        <v>0.9628096338466303</v>
+      </c>
+      <c r="E12">
+        <v>0.9651087136327688</v>
+      </c>
+      <c r="F12">
+        <v>0.9540528877338321</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.023938164268118</v>
+      </c>
+      <c r="J12">
+        <v>0.9669758116517542</v>
+      </c>
+      <c r="K12">
+        <v>0.9667200678274198</v>
+      </c>
+      <c r="L12">
+        <v>0.9690090045576304</v>
+      </c>
+      <c r="M12">
+        <v>0.9580024576331591</v>
+      </c>
+      <c r="N12">
+        <v>0.9683490282179755</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>0.9603501842629024</v>
+      </c>
+      <c r="D13">
+        <v>0.9634316736962732</v>
+      </c>
+      <c r="E13">
+        <v>0.9656750705620839</v>
+      </c>
+      <c r="F13">
+        <v>0.9547311172487305</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.023934571058995</v>
+      </c>
+      <c r="J13">
+        <v>0.9675781899624011</v>
+      </c>
+      <c r="K13">
+        <v>0.9673288716224288</v>
+      </c>
+      <c r="L13">
+        <v>0.9695624132478596</v>
+      </c>
+      <c r="M13">
+        <v>0.9586670287837368</v>
+      </c>
+      <c r="N13">
+        <v>0.9689522619749172</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>0.9623949011854487</v>
+      </c>
+      <c r="D14">
+        <v>0.9654573100709452</v>
+      </c>
+      <c r="E14">
+        <v>0.9675192027892424</v>
+      </c>
+      <c r="F14">
+        <v>0.9569398831038881</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.023922712353274</v>
+      </c>
+      <c r="J14">
+        <v>0.9695396582218279</v>
+      </c>
+      <c r="K14">
+        <v>0.9693113041231666</v>
+      </c>
+      <c r="L14">
+        <v>0.9713642649209728</v>
+      </c>
+      <c r="M14">
+        <v>0.9608312313976138</v>
+      </c>
+      <c r="N14">
+        <v>0.9709165157442562</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>0.9636452179480161</v>
+      </c>
+      <c r="D15">
+        <v>0.9666959573415513</v>
+      </c>
+      <c r="E15">
+        <v>0.9686467282570445</v>
+      </c>
+      <c r="F15">
+        <v>0.9582906277523403</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.023915340507296</v>
+      </c>
+      <c r="J15">
+        <v>0.9707389600020053</v>
+      </c>
+      <c r="K15">
+        <v>0.9705234556890179</v>
+      </c>
+      <c r="L15">
+        <v>0.9724658487949642</v>
+      </c>
+      <c r="M15">
+        <v>0.9621546610208164</v>
+      </c>
+      <c r="N15">
+        <v>0.9721175206705233</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>0.9707843078683071</v>
+      </c>
+      <c r="D16">
+        <v>0.9737683789436532</v>
+      </c>
+      <c r="E16">
+        <v>0.9750826312383658</v>
+      </c>
+      <c r="F16">
+        <v>0.9660048895267537</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.023871434968932</v>
+      </c>
+      <c r="J16">
+        <v>0.9775851238252942</v>
+      </c>
+      <c r="K16">
+        <v>0.9774434430375342</v>
+      </c>
+      <c r="L16">
+        <v>0.9787523296487449</v>
+      </c>
+      <c r="M16">
+        <v>0.969711981960381</v>
+      </c>
+      <c r="N16">
+        <v>0.9789734068317072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>0.9751475274022519</v>
+      </c>
+      <c r="D17">
+        <v>0.9780908121434088</v>
+      </c>
+      <c r="E17">
+        <v>0.9790142559792221</v>
+      </c>
+      <c r="F17">
+        <v>0.9707211926651048</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.023843013862359</v>
+      </c>
+      <c r="J17">
+        <v>0.9817678912356088</v>
+      </c>
+      <c r="K17">
+        <v>0.9816717211594584</v>
+      </c>
+      <c r="L17">
+        <v>0.9825915137369305</v>
+      </c>
+      <c r="M17">
+        <v>0.9743315179447576</v>
+      </c>
+      <c r="N17">
+        <v>0.9831621142515142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>0.9776536245258901</v>
+      </c>
+      <c r="D18">
+        <v>0.9805734655223776</v>
+      </c>
+      <c r="E18">
+        <v>0.9812717966691278</v>
+      </c>
+      <c r="F18">
+        <v>0.9734306583099617</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.023826118601775</v>
+      </c>
+      <c r="J18">
+        <v>0.9841698344859301</v>
+      </c>
+      <c r="K18">
+        <v>0.984099943336388</v>
+      </c>
+      <c r="L18">
+        <v>0.9847955647643364</v>
+      </c>
+      <c r="M18">
+        <v>0.9769851003228344</v>
+      </c>
+      <c r="N18">
+        <v>0.9855674685367581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>0.9785017651181672</v>
+      </c>
+      <c r="D19">
+        <v>0.9814136688371152</v>
+      </c>
+      <c r="E19">
+        <v>0.9820357053746012</v>
+      </c>
+      <c r="F19">
+        <v>0.9743477223068178</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.023820303822167</v>
+      </c>
+      <c r="J19">
+        <v>0.9849826404346115</v>
+      </c>
+      <c r="K19">
+        <v>0.984921666291066</v>
+      </c>
+      <c r="L19">
+        <v>0.9855413046391595</v>
+      </c>
+      <c r="M19">
+        <v>0.9778832004587052</v>
+      </c>
+      <c r="N19">
+        <v>0.9863814287631169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>0.9746834724075705</v>
+      </c>
+      <c r="D20">
+        <v>0.9776310967684646</v>
+      </c>
+      <c r="E20">
+        <v>0.9785961724749375</v>
+      </c>
+      <c r="F20">
+        <v>0.9702195261455893</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.023846096030143</v>
+      </c>
+      <c r="J20">
+        <v>0.9813230813513337</v>
+      </c>
+      <c r="K20">
+        <v>0.9812220564302618</v>
+      </c>
+      <c r="L20">
+        <v>0.9821833030810744</v>
+      </c>
+      <c r="M20">
+        <v>0.9738401748000488</v>
+      </c>
+      <c r="N20">
+        <v>0.9827166726861833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>0.9617947791779203</v>
+      </c>
+      <c r="D21">
+        <v>0.9648627885798308</v>
+      </c>
+      <c r="E21">
+        <v>0.9669779806522972</v>
+      </c>
+      <c r="F21">
+        <v>0.9562915891188984</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.02392621804881</v>
+      </c>
+      <c r="J21">
+        <v>0.9689639925336095</v>
+      </c>
+      <c r="K21">
+        <v>0.9687294790779999</v>
+      </c>
+      <c r="L21">
+        <v>0.9708354704452772</v>
+      </c>
+      <c r="M21">
+        <v>0.9601960303199147</v>
+      </c>
+      <c r="N21">
+        <v>0.9703400325447307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>0.9532828424753562</v>
+      </c>
+      <c r="D22">
+        <v>0.956430259470448</v>
+      </c>
+      <c r="E22">
+        <v>0.9592989837035899</v>
+      </c>
+      <c r="F22">
+        <v>0.9470984536014361</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.023973741382756</v>
+      </c>
+      <c r="J22">
+        <v>0.9607969237426384</v>
+      </c>
+      <c r="K22">
+        <v>0.960475609254403</v>
+      </c>
+      <c r="L22">
+        <v>0.9633311221463094</v>
+      </c>
+      <c r="M22">
+        <v>0.9511874035590457</v>
+      </c>
+      <c r="N22">
+        <v>0.9621613655793003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>0.9578370230461319</v>
+      </c>
+      <c r="D23">
+        <v>0.9609419597248128</v>
+      </c>
+      <c r="E23">
+        <v>0.9634080774757098</v>
+      </c>
+      <c r="F23">
+        <v>0.9520166320064979</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.023948818288664</v>
+      </c>
+      <c r="J23">
+        <v>0.9651670499106136</v>
+      </c>
+      <c r="K23">
+        <v>0.9648920479107478</v>
+      </c>
+      <c r="L23">
+        <v>0.9673471463316218</v>
+      </c>
+      <c r="M23">
+        <v>0.9560071379047784</v>
+      </c>
+      <c r="N23">
+        <v>0.9665376978276946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>0.974893278481341</v>
+      </c>
+      <c r="D24">
+        <v>0.9778389408910897</v>
+      </c>
+      <c r="E24">
+        <v>0.9787851962229938</v>
+      </c>
+      <c r="F24">
+        <v>0.9704463351718576</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.023844704313072</v>
+      </c>
+      <c r="J24">
+        <v>0.981524188006645</v>
+      </c>
+      <c r="K24">
+        <v>0.9814253576003621</v>
+      </c>
+      <c r="L24">
+        <v>0.982367864395103</v>
+      </c>
+      <c r="M24">
+        <v>0.9740623174196754</v>
+      </c>
+      <c r="N24">
+        <v>0.9829180649360124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>0.9931779103041103</v>
+      </c>
+      <c r="D25">
+        <v>0.9959521492526842</v>
+      </c>
+      <c r="E25">
+        <v>0.9952446215706396</v>
+      </c>
+      <c r="F25">
+        <v>0.9902249468935747</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.02371141742819</v>
+      </c>
+      <c r="J25">
+        <v>0.9990401239635286</v>
+      </c>
+      <c r="K25">
+        <v>0.9991354105500897</v>
+      </c>
+      <c r="L25">
+        <v>0.998430308063168</v>
+      </c>
+      <c r="M25">
+        <v>0.9934279488650259</v>
+      </c>
+      <c r="N25">
+        <v>1.000458875531061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,164 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9986507806611333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.011548452232381</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.005113254135502</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.016037786959957</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.042551543645556</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.020871921671885</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.022849209566697</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.016501809899403</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.02727812159734</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010433794675248</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.030161118530066</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.027226388201371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.003147990020375</v>
+      </c>
+      <c r="D3">
+        <v>1.014899028002344</v>
+      </c>
+      <c r="E3">
+        <v>1.008719869667692</v>
+      </c>
+      <c r="F3">
+        <v>1.0193920979493</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.043361073939729</v>
+      </c>
+      <c r="J3">
+        <v>1.023553203982478</v>
+      </c>
+      <c r="K3">
+        <v>1.02534475716549</v>
+      </c>
+      <c r="L3">
+        <v>1.019242380787491</v>
+      </c>
+      <c r="M3">
+        <v>1.02978272308215</v>
+      </c>
+      <c r="N3">
+        <v>1.011381657296666</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032143368829828</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.028988310600283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.00599615932632</v>
+      </c>
+      <c r="D4">
+        <v>1.017027690842113</v>
+      </c>
+      <c r="E4">
+        <v>1.011009607065621</v>
+      </c>
+      <c r="F4">
+        <v>1.021525718988596</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.043861095558961</v>
+      </c>
+      <c r="J4">
+        <v>1.025247716540199</v>
+      </c>
+      <c r="K4">
+        <v>1.02692486021027</v>
+      </c>
+      <c r="L4">
+        <v>1.020976947298088</v>
+      </c>
+      <c r="M4">
+        <v>1.031371107818658</v>
+      </c>
+      <c r="N4">
+        <v>1.011980172623172</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033400482521433</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030106522036407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.007185396372846</v>
+      </c>
+      <c r="D5">
+        <v>1.017921210227311</v>
+      </c>
+      <c r="E5">
+        <v>1.011967679773432</v>
+      </c>
+      <c r="F5">
+        <v>1.022416824530614</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.044068074983545</v>
+      </c>
+      <c r="J5">
+        <v>1.025956692572589</v>
+      </c>
+      <c r="K5">
+        <v>1.027588747311887</v>
+      </c>
+      <c r="L5">
+        <v>1.021702746787562</v>
+      </c>
+      <c r="M5">
+        <v>1.032034009933663</v>
+      </c>
+      <c r="N5">
+        <v>1.012231081854358</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033925130138451</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.030583222720019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.007391755387919</v>
+      </c>
+      <c r="D6">
+        <v>1.01808015158147</v>
+      </c>
+      <c r="E6">
+        <v>1.012134853947893</v>
+      </c>
+      <c r="F6">
+        <v>1.022569195356319</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.044105391834613</v>
+      </c>
+      <c r="J6">
+        <v>1.026082512464895</v>
+      </c>
+      <c r="K6">
+        <v>1.027709088179369</v>
+      </c>
+      <c r="L6">
+        <v>1.021830910881393</v>
+      </c>
+      <c r="M6">
+        <v>1.032148088289186</v>
+      </c>
+      <c r="N6">
+        <v>1.012276359879922</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.03401541633585</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.030677171849503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.006032447160707</v>
+      </c>
+      <c r="D7">
+        <v>1.017065156269367</v>
+      </c>
+      <c r="E7">
+        <v>1.01104115344698</v>
+      </c>
+      <c r="F7">
+        <v>1.021546451654648</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.043871723805522</v>
+      </c>
+      <c r="J7">
+        <v>1.025277056353831</v>
+      </c>
+      <c r="K7">
+        <v>1.026958958185272</v>
+      </c>
+      <c r="L7">
+        <v>1.021005165813792</v>
+      </c>
+      <c r="M7">
+        <v>1.031388686547008</v>
+      </c>
+      <c r="N7">
+        <v>1.011992629624489</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033414395044988</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.030151008353449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.000209876094387</v>
+      </c>
+      <c r="D8">
+        <v>1.012721429408691</v>
+      </c>
+      <c r="E8">
+        <v>1.006365496144691</v>
+      </c>
+      <c r="F8">
+        <v>1.017190512287128</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.04284021581165</v>
+      </c>
+      <c r="J8">
+        <v>1.021811992043907</v>
+      </c>
+      <c r="K8">
+        <v>1.02373179459327</v>
+      </c>
+      <c r="L8">
+        <v>1.017459927629473</v>
+      </c>
+      <c r="M8">
+        <v>1.028142555027926</v>
+      </c>
+      <c r="N8">
+        <v>1.010768980200631</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030845269296024</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.027873718903316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9894181654383578</v>
+      </c>
+      <c r="D9">
+        <v>1.004709385500212</v>
+      </c>
+      <c r="E9">
+        <v>0.9977423721214278</v>
+      </c>
+      <c r="F9">
+        <v>1.0092042173317</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.040822567762943</v>
+      </c>
+      <c r="J9">
+        <v>1.015350210159373</v>
+      </c>
+      <c r="K9">
+        <v>1.017726515517333</v>
+      </c>
+      <c r="L9">
+        <v>1.010872184267972</v>
+      </c>
+      <c r="M9">
+        <v>1.022149706971805</v>
+      </c>
+      <c r="N9">
+        <v>1.008479656382875</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.026102250941176</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.023624208181791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9820069681742932</v>
+      </c>
+      <c r="D10">
+        <v>0.9992657170978436</v>
+      </c>
+      <c r="E10">
+        <v>0.9918716099591959</v>
+      </c>
+      <c r="F10">
+        <v>1.004010073639374</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.039400879283132</v>
+      </c>
+      <c r="J10">
+        <v>1.010953114910707</v>
+      </c>
+      <c r="K10">
+        <v>1.01364824191743</v>
+      </c>
+      <c r="L10">
+        <v>1.006389192446773</v>
+      </c>
+      <c r="M10">
+        <v>1.018307300477695</v>
+      </c>
+      <c r="N10">
+        <v>1.006930483624414</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.023113590282816</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.020757626730678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9799182986199624</v>
+      </c>
+      <c r="D11">
+        <v>0.9978789168767332</v>
+      </c>
+      <c r="E11">
+        <v>0.9903602436685887</v>
+      </c>
+      <c r="F11">
+        <v>1.004440882859184</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.039195973635676</v>
+      </c>
+      <c r="J11">
+        <v>1.010151038522437</v>
+      </c>
+      <c r="K11">
+        <v>1.012840944881187</v>
+      </c>
+      <c r="L11">
+        <v>1.005466270491438</v>
+      </c>
+      <c r="M11">
+        <v>1.019279533774496</v>
+      </c>
+      <c r="N11">
+        <v>1.006737644714743</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024326469565469</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.020220316847219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9795507303582628</v>
+      </c>
+      <c r="D12">
+        <v>0.9977053489628246</v>
+      </c>
+      <c r="E12">
+        <v>0.9901733116713989</v>
+      </c>
+      <c r="F12">
+        <v>1.005514021959337</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.039273176728214</v>
+      </c>
+      <c r="J12">
+        <v>1.010246482536313</v>
+      </c>
+      <c r="K12">
+        <v>1.012876643302732</v>
+      </c>
+      <c r="L12">
+        <v>1.005491228525138</v>
+      </c>
+      <c r="M12">
+        <v>1.02053633901675</v>
+      </c>
+      <c r="N12">
+        <v>1.00684421616122</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025651485026479</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.020245557746954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9805040800894286</v>
+      </c>
+      <c r="D13">
+        <v>0.9984791578221686</v>
+      </c>
+      <c r="E13">
+        <v>0.9910100352928826</v>
+      </c>
+      <c r="F13">
+        <v>1.007182529173612</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.039585344871199</v>
+      </c>
+      <c r="J13">
+        <v>1.011061356837835</v>
+      </c>
+      <c r="K13">
+        <v>1.013591420820353</v>
+      </c>
+      <c r="L13">
+        <v>1.006266899109668</v>
+      </c>
+      <c r="M13">
+        <v>1.022129828750908</v>
+      </c>
+      <c r="N13">
+        <v>1.00719876641766</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.027191225715021</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02074840610354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.981757964944573</v>
+      </c>
+      <c r="D14">
+        <v>0.9994424100186096</v>
+      </c>
+      <c r="E14">
+        <v>0.9920494291151416</v>
+      </c>
+      <c r="F14">
+        <v>1.00859171051608</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.039906400721831</v>
+      </c>
+      <c r="J14">
+        <v>1.01194660063703</v>
+      </c>
+      <c r="K14">
+        <v>1.014391832012943</v>
+      </c>
+      <c r="L14">
+        <v>1.007140023411032</v>
+      </c>
+      <c r="M14">
+        <v>1.023370157254792</v>
+      </c>
+      <c r="N14">
+        <v>1.007555615214166</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.028346586201546</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.021315796250805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9823681914530692</v>
+      </c>
+      <c r="D15">
+        <v>0.9999010441647116</v>
+      </c>
+      <c r="E15">
+        <v>0.9925414661099234</v>
+      </c>
+      <c r="F15">
+        <v>1.009116084325188</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.040042115192259</v>
+      </c>
+      <c r="J15">
+        <v>1.012337671866491</v>
+      </c>
+      <c r="K15">
+        <v>1.014752888903852</v>
+      </c>
+      <c r="L15">
+        <v>1.007532705197228</v>
+      </c>
+      <c r="M15">
+        <v>1.023797124213893</v>
+      </c>
+      <c r="N15">
+        <v>1.007703679921984</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028721895235099</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.021577066167195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9853021755180041</v>
+      </c>
+      <c r="D16">
+        <v>1.002038304119509</v>
+      </c>
+      <c r="E16">
+        <v>0.9948415775284231</v>
+      </c>
+      <c r="F16">
+        <v>1.011027613969191</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.04059153043546</v>
+      </c>
+      <c r="J16">
+        <v>1.014032625777551</v>
+      </c>
+      <c r="K16">
+        <v>1.016334283774394</v>
+      </c>
+      <c r="L16">
+        <v>1.009267644035376</v>
+      </c>
+      <c r="M16">
+        <v>1.025164474156548</v>
+      </c>
+      <c r="N16">
+        <v>1.008287598538774</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029763608885492</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.022698426753692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9869075830157569</v>
+      </c>
+      <c r="D17">
+        <v>1.003184526964098</v>
+      </c>
+      <c r="E17">
+        <v>0.9960731569618707</v>
+      </c>
+      <c r="F17">
+        <v>1.01176338427388</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.04084540364678</v>
+      </c>
+      <c r="J17">
+        <v>1.014878350056487</v>
+      </c>
+      <c r="K17">
+        <v>1.017136949333676</v>
+      </c>
+      <c r="L17">
+        <v>1.010150390073311</v>
+      </c>
+      <c r="M17">
+        <v>1.025568255245625</v>
+      </c>
+      <c r="N17">
+        <v>1.008551686772768</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029952626667241</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.023268590777269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9874656643972901</v>
+      </c>
+      <c r="D18">
+        <v>1.003528939816698</v>
+      </c>
+      <c r="E18">
+        <v>0.9964473260596793</v>
+      </c>
+      <c r="F18">
+        <v>1.011379786252116</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.040849847704078</v>
+      </c>
+      <c r="J18">
+        <v>1.015010712681429</v>
+      </c>
+      <c r="K18">
+        <v>1.01728703592716</v>
+      </c>
+      <c r="L18">
+        <v>1.010327666365317</v>
+      </c>
+      <c r="M18">
+        <v>1.025004938917516</v>
+      </c>
+      <c r="N18">
+        <v>1.008541246983344</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.029267221966011</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.02336286856619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9870786935368028</v>
+      </c>
+      <c r="D19">
+        <v>1.003163961732926</v>
+      </c>
+      <c r="E19">
+        <v>0.9960507234147493</v>
+      </c>
+      <c r="F19">
+        <v>1.009887708710059</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.040636542230148</v>
+      </c>
+      <c r="J19">
+        <v>1.014501359190579</v>
+      </c>
+      <c r="K19">
+        <v>1.016864052141224</v>
+      </c>
+      <c r="L19">
+        <v>1.009873064956171</v>
+      </c>
+      <c r="M19">
+        <v>1.023474282627316</v>
+      </c>
+      <c r="N19">
+        <v>1.008293049092084</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027727357663236</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.023070305901513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9839945846555388</v>
+      </c>
+      <c r="D20">
+        <v>1.000749867159478</v>
+      </c>
+      <c r="E20">
+        <v>0.9934515095976897</v>
+      </c>
+      <c r="F20">
+        <v>1.005394476595583</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.039798942431606</v>
+      </c>
+      <c r="J20">
+        <v>1.012156742174728</v>
+      </c>
+      <c r="K20">
+        <v>1.014779543860337</v>
+      </c>
+      <c r="L20">
+        <v>1.007610492020487</v>
+      </c>
+      <c r="M20">
+        <v>1.019343129254761</v>
+      </c>
+      <c r="N20">
+        <v>1.007361608206947</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023922607534018</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.021600436521263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9781694704960681</v>
+      </c>
+      <c r="D21">
+        <v>0.9964556982020865</v>
+      </c>
+      <c r="E21">
+        <v>0.9888242505794554</v>
+      </c>
+      <c r="F21">
+        <v>1.00096122394609</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.038619830613089</v>
+      </c>
+      <c r="J21">
+        <v>1.008609147297569</v>
+      </c>
+      <c r="K21">
+        <v>1.011504531029926</v>
+      </c>
+      <c r="L21">
+        <v>1.004020489973495</v>
+      </c>
+      <c r="M21">
+        <v>1.015924408499946</v>
+      </c>
+      <c r="N21">
+        <v>1.006094435272851</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.021175225672875</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.019288105860188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.974465130832735</v>
+      </c>
+      <c r="D22">
+        <v>0.9937316763480899</v>
+      </c>
+      <c r="E22">
+        <v>0.9858949654037261</v>
+      </c>
+      <c r="F22">
+        <v>0.9982814046268473</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.037865240022648</v>
+      </c>
+      <c r="J22">
+        <v>1.006368476500239</v>
+      </c>
+      <c r="K22">
+        <v>1.009428341161575</v>
+      </c>
+      <c r="L22">
+        <v>1.0017511217905</v>
+      </c>
+      <c r="M22">
+        <v>1.013886984280224</v>
+      </c>
+      <c r="N22">
+        <v>1.005295854287544</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019562694264147</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017806302482225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9764160591090626</v>
+      </c>
+      <c r="D23">
+        <v>0.995155812351569</v>
+      </c>
+      <c r="E23">
+        <v>0.9874340458606601</v>
+      </c>
+      <c r="F23">
+        <v>0.9996977454754091</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.038259784219323</v>
+      </c>
+      <c r="J23">
+        <v>1.007541156199923</v>
+      </c>
+      <c r="K23">
+        <v>1.010508795843165</v>
+      </c>
+      <c r="L23">
+        <v>1.002939924348159</v>
+      </c>
+      <c r="M23">
+        <v>1.014962242076304</v>
+      </c>
+      <c r="N23">
+        <v>1.005711420032037</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020413713869374</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.018560412788024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9839412998767562</v>
+      </c>
+      <c r="D24">
+        <v>1.000683498255344</v>
+      </c>
+      <c r="E24">
+        <v>0.993392661641053</v>
+      </c>
+      <c r="F24">
+        <v>1.005177708780837</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.039763159748257</v>
+      </c>
+      <c r="J24">
+        <v>1.012071844219603</v>
+      </c>
+      <c r="K24">
+        <v>1.014698621520963</v>
+      </c>
+      <c r="L24">
+        <v>1.007536811680905</v>
+      </c>
+      <c r="M24">
+        <v>1.019114504099449</v>
+      </c>
+      <c r="N24">
+        <v>1.007320252488348</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.023700037867089</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.021515278323868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9923054084676426</v>
+      </c>
+      <c r="D25">
+        <v>1.006862468094666</v>
+      </c>
+      <c r="E25">
+        <v>1.000047865550689</v>
+      </c>
+      <c r="F25">
+        <v>1.011321043035204</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.04138048808627</v>
+      </c>
+      <c r="J25">
+        <v>1.017094530393987</v>
+      </c>
+      <c r="K25">
+        <v>1.019355179020615</v>
+      </c>
+      <c r="L25">
+        <v>1.012645438513551</v>
+      </c>
+      <c r="M25">
+        <v>1.023746120135866</v>
+      </c>
+      <c r="N25">
+        <v>1.009101791203235</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.027365729673731</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.024804899321301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9986507806611333</v>
+        <v>0.9998965894172516</v>
       </c>
       <c r="D2">
-        <v>1.011548452232381</v>
+        <v>1.01273256816894</v>
       </c>
       <c r="E2">
-        <v>1.005113254135502</v>
+        <v>1.006236866478585</v>
       </c>
       <c r="F2">
-        <v>1.016037786959957</v>
+        <v>1.016577475096615</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042551543645556</v>
+        <v>1.043004052150754</v>
       </c>
       <c r="J2">
-        <v>1.020871921671885</v>
+        <v>1.022080393917431</v>
       </c>
       <c r="K2">
-        <v>1.022849209566697</v>
+        <v>1.024017322893065</v>
       </c>
       <c r="L2">
-        <v>1.016501809899403</v>
+        <v>1.017609990339719</v>
       </c>
       <c r="M2">
-        <v>1.02727812159734</v>
+        <v>1.02781059111743</v>
       </c>
       <c r="N2">
-        <v>1.010433794675248</v>
+        <v>1.012785117758954</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.030161118530066</v>
+        <v>1.030582538486762</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.027226388201371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.028061274617195</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01829572167875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003147990020375</v>
+        <v>1.004053984129138</v>
       </c>
       <c r="D3">
-        <v>1.014899028002344</v>
+        <v>1.015659756923766</v>
       </c>
       <c r="E3">
-        <v>1.008719869667692</v>
+        <v>1.009543525252363</v>
       </c>
       <c r="F3">
-        <v>1.0193920979493</v>
+        <v>1.019784046126672</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043361073939729</v>
+        <v>1.043698442315331</v>
       </c>
       <c r="J3">
-        <v>1.023553203982478</v>
+        <v>1.024434740246837</v>
       </c>
       <c r="K3">
-        <v>1.02534475716549</v>
+        <v>1.026096113676573</v>
       </c>
       <c r="L3">
-        <v>1.019242380787491</v>
+        <v>1.020055733995421</v>
       </c>
       <c r="M3">
-        <v>1.02978272308215</v>
+        <v>1.030169892938332</v>
       </c>
       <c r="N3">
-        <v>1.011381657296666</v>
+        <v>1.013441741065714</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032143368829828</v>
+        <v>1.032449791352228</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.028988310600283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029528217840287</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018774370639945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00599615932632</v>
+        <v>1.006690459702338</v>
       </c>
       <c r="D4">
-        <v>1.017027690842113</v>
+        <v>1.017522599620021</v>
       </c>
       <c r="E4">
-        <v>1.011009607065621</v>
+        <v>1.011646161001794</v>
       </c>
       <c r="F4">
-        <v>1.021525718988596</v>
+        <v>1.021825825291647</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043861095558961</v>
+        <v>1.044126544216243</v>
       </c>
       <c r="J4">
-        <v>1.025247716540199</v>
+        <v>1.025924557499209</v>
       </c>
       <c r="K4">
-        <v>1.02692486021027</v>
+        <v>1.027414043990886</v>
       </c>
       <c r="L4">
-        <v>1.020976947298088</v>
+        <v>1.021606030157985</v>
       </c>
       <c r="M4">
-        <v>1.031371107818658</v>
+        <v>1.031667779369405</v>
       </c>
       <c r="N4">
-        <v>1.011980172623172</v>
+        <v>1.013857055504456</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033400482521433</v>
+        <v>1.03363528046626</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030106522036407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.030461120128464</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019075154469834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007185396372846</v>
+        <v>1.007791772796131</v>
       </c>
       <c r="D5">
-        <v>1.017921210227311</v>
+        <v>1.018305383925879</v>
       </c>
       <c r="E5">
-        <v>1.011967679773432</v>
+        <v>1.012526444819321</v>
       </c>
       <c r="F5">
-        <v>1.022416824530614</v>
+        <v>1.022678831817458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044068074983545</v>
+        <v>1.044303576850035</v>
       </c>
       <c r="J5">
-        <v>1.025956692572589</v>
+        <v>1.026548281584498</v>
       </c>
       <c r="K5">
-        <v>1.027588747311887</v>
+        <v>1.027968596799248</v>
       </c>
       <c r="L5">
-        <v>1.021702746787562</v>
+        <v>1.022255132195554</v>
       </c>
       <c r="M5">
-        <v>1.032034009933663</v>
+        <v>1.032293099488808</v>
       </c>
       <c r="N5">
-        <v>1.012231081854358</v>
+        <v>1.014031328653884</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033925130138451</v>
+        <v>1.034130184013097</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.030583222720019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030861216222902</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019201826255025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007391755387919</v>
+        <v>1.007982512042959</v>
       </c>
       <c r="D6">
-        <v>1.01808015158147</v>
+        <v>1.018444803565563</v>
       </c>
       <c r="E6">
-        <v>1.012134853947893</v>
+        <v>1.012679758909966</v>
       </c>
       <c r="F6">
-        <v>1.022569195356319</v>
+        <v>1.022824438122558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044105391834613</v>
+        <v>1.044335526758145</v>
       </c>
       <c r="J6">
-        <v>1.026082512464895</v>
+        <v>1.026658937708748</v>
       </c>
       <c r="K6">
-        <v>1.027709088179369</v>
+        <v>1.028069654773319</v>
       </c>
       <c r="L6">
-        <v>1.021830910881393</v>
+        <v>1.022369623608924</v>
       </c>
       <c r="M6">
-        <v>1.032148088289186</v>
+        <v>1.032400501850424</v>
       </c>
       <c r="N6">
-        <v>1.012276359879922</v>
+        <v>1.014062788346836</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03401541633585</v>
+        <v>1.034215186536054</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.030677171849503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030942396264198</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019225794322756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006032447160707</v>
+        <v>1.006732981835862</v>
       </c>
       <c r="D7">
-        <v>1.017065156269367</v>
+        <v>1.017563921651659</v>
       </c>
       <c r="E7">
-        <v>1.01104115344698</v>
+        <v>1.011683496608741</v>
       </c>
       <c r="F7">
-        <v>1.021546451654648</v>
+        <v>1.021849251196786</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043871723805522</v>
+        <v>1.044139668645122</v>
       </c>
       <c r="J7">
-        <v>1.025277056353831</v>
+        <v>1.025959983138897</v>
       </c>
       <c r="K7">
-        <v>1.026958958185272</v>
+        <v>1.027451956440189</v>
       </c>
       <c r="L7">
-        <v>1.021005165813792</v>
+        <v>1.021639973114304</v>
       </c>
       <c r="M7">
-        <v>1.031388686547008</v>
+        <v>1.031688021855308</v>
       </c>
       <c r="N7">
-        <v>1.011992629624489</v>
+        <v>1.01389482086958</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033414395044988</v>
+        <v>1.033651301190958</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.030151008353449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030510295523935</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019087284058866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000209876094387</v>
+        <v>1.00136681245293</v>
       </c>
       <c r="D8">
-        <v>1.012721429408691</v>
+        <v>1.013782445093593</v>
       </c>
       <c r="E8">
-        <v>1.006365496144691</v>
+        <v>1.007411902494118</v>
       </c>
       <c r="F8">
-        <v>1.017190512287128</v>
+        <v>1.01769147006111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04284021581165</v>
+        <v>1.043264188685611</v>
       </c>
       <c r="J8">
-        <v>1.021811992043907</v>
+        <v>1.022935440545146</v>
       </c>
       <c r="K8">
-        <v>1.02373179459327</v>
+        <v>1.02477890548462</v>
       </c>
       <c r="L8">
-        <v>1.017459927629473</v>
+        <v>1.01849240220113</v>
       </c>
       <c r="M8">
-        <v>1.028142555027926</v>
+        <v>1.028637015163357</v>
       </c>
       <c r="N8">
-        <v>1.010768980200631</v>
+        <v>1.013105990973311</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030845269296024</v>
+        <v>1.031236606566033</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.027873718903316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028625292395519</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018477908467349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9894181654383578</v>
+        <v>0.9914194422221023</v>
       </c>
       <c r="D9">
-        <v>1.004709385500212</v>
+        <v>1.006806406062792</v>
       </c>
       <c r="E9">
-        <v>0.9977423721214278</v>
+        <v>0.9995326699371978</v>
       </c>
       <c r="F9">
-        <v>1.0092042173317</v>
+        <v>1.010073549371801</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040822567762943</v>
+        <v>1.041531763468391</v>
       </c>
       <c r="J9">
-        <v>1.015350210159373</v>
+        <v>1.017278883647757</v>
       </c>
       <c r="K9">
-        <v>1.017726515517333</v>
+        <v>1.019790010931824</v>
       </c>
       <c r="L9">
-        <v>1.010872184267972</v>
+        <v>1.012633333798705</v>
       </c>
       <c r="M9">
-        <v>1.022149706971805</v>
+        <v>1.023005277479948</v>
       </c>
       <c r="N9">
-        <v>1.008479656382875</v>
+        <v>1.011535832322272</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.026102250941176</v>
+        <v>1.026779391187849</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.023624208181791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025094218373115</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017312076444807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9820069681742932</v>
+        <v>0.9846494005019329</v>
       </c>
       <c r="D10">
-        <v>0.9992657170978436</v>
+        <v>1.002118894217317</v>
       </c>
       <c r="E10">
-        <v>0.9918716099591959</v>
+        <v>0.9942258302108147</v>
       </c>
       <c r="F10">
-        <v>1.004010073639374</v>
+        <v>1.005159230818399</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039400879283132</v>
+        <v>1.040326815423681</v>
       </c>
       <c r="J10">
-        <v>1.010953114910707</v>
+        <v>1.013485582826399</v>
       </c>
       <c r="K10">
-        <v>1.01364824191743</v>
+        <v>1.016449996473551</v>
       </c>
       <c r="L10">
-        <v>1.006389192446773</v>
+        <v>1.008700127614999</v>
       </c>
       <c r="M10">
-        <v>1.018307300477695</v>
+        <v>1.019435954401668</v>
       </c>
       <c r="N10">
-        <v>1.006930483624414</v>
+        <v>1.010603464942734</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.023113590282816</v>
+        <v>1.024006808090628</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.020757626730678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.022751340449979</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016532092445652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9799182986199624</v>
+        <v>0.9827502807321021</v>
       </c>
       <c r="D11">
-        <v>0.9978789168767332</v>
+        <v>1.00094047696066</v>
       </c>
       <c r="E11">
-        <v>0.9903602436685887</v>
+        <v>0.992876700712051</v>
       </c>
       <c r="F11">
-        <v>1.004440882859184</v>
+        <v>1.005663088950498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039195973635676</v>
+        <v>1.040181710112599</v>
       </c>
       <c r="J11">
-        <v>1.010151038522437</v>
+        <v>1.01285870192383</v>
       </c>
       <c r="K11">
-        <v>1.012840944881187</v>
+        <v>1.015844679031265</v>
       </c>
       <c r="L11">
-        <v>1.005466270491438</v>
+        <v>1.007934214014985</v>
       </c>
       <c r="M11">
-        <v>1.019279533774496</v>
+        <v>1.020478992137453</v>
       </c>
       <c r="N11">
-        <v>1.006737644714743</v>
+        <v>1.010724614440038</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024326469565469</v>
+        <v>1.025275227761368</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.020220316847219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022360013808449</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016468497747285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9795507303582628</v>
+        <v>0.9823945973839238</v>
       </c>
       <c r="D12">
-        <v>0.9977053489628246</v>
+        <v>1.000779879185356</v>
       </c>
       <c r="E12">
-        <v>0.9901733116713989</v>
+        <v>0.9926949774686662</v>
       </c>
       <c r="F12">
-        <v>1.005514021959337</v>
+        <v>1.006734459890749</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039273176728214</v>
+        <v>1.040257382447096</v>
       </c>
       <c r="J12">
-        <v>1.010246482536313</v>
+        <v>1.012963201316778</v>
       </c>
       <c r="K12">
-        <v>1.012876643302732</v>
+        <v>1.015892153177711</v>
       </c>
       <c r="L12">
-        <v>1.005491228525138</v>
+        <v>1.007963481262179</v>
       </c>
       <c r="M12">
-        <v>1.02053633901675</v>
+        <v>1.021733765685061</v>
       </c>
       <c r="N12">
-        <v>1.00684421616122</v>
+        <v>1.01090594179411</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025651485026479</v>
+        <v>1.02659830678879</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020245557746954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.022393579926194</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016536000606695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9805040800894286</v>
+        <v>0.9832060559265179</v>
       </c>
       <c r="D13">
-        <v>0.9984791578221686</v>
+        <v>1.001402080981284</v>
       </c>
       <c r="E13">
-        <v>0.9910100352928826</v>
+        <v>0.9934003446024249</v>
       </c>
       <c r="F13">
-        <v>1.007182529173612</v>
+        <v>1.008336857193102</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039585344871199</v>
+        <v>1.040514063632308</v>
       </c>
       <c r="J13">
-        <v>1.011061356837835</v>
+        <v>1.013643282006989</v>
       </c>
       <c r="K13">
-        <v>1.013591420820353</v>
+        <v>1.016458524731774</v>
       </c>
       <c r="L13">
-        <v>1.006266899109668</v>
+        <v>1.008610622300562</v>
       </c>
       <c r="M13">
-        <v>1.022129828750908</v>
+        <v>1.023262556838698</v>
       </c>
       <c r="N13">
-        <v>1.00719876641766</v>
+        <v>1.011114822107895</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.027191225715021</v>
+        <v>1.028086659969435</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02074840610354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.022791246895727</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016714515066026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.981757964944573</v>
+        <v>0.9842939345791858</v>
       </c>
       <c r="D14">
-        <v>0.9994424100186096</v>
+        <v>1.002187684034628</v>
       </c>
       <c r="E14">
-        <v>0.9920494291151416</v>
+        <v>0.9942888476837659</v>
       </c>
       <c r="F14">
-        <v>1.00859171051608</v>
+        <v>1.009672349940961</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039906400721831</v>
+        <v>1.040773197777777</v>
       </c>
       <c r="J14">
-        <v>1.01194660063703</v>
+        <v>1.014371633756358</v>
       </c>
       <c r="K14">
-        <v>1.014391832012943</v>
+        <v>1.017085376301634</v>
       </c>
       <c r="L14">
-        <v>1.007140023411032</v>
+        <v>1.009336389133213</v>
       </c>
       <c r="M14">
-        <v>1.023370157254792</v>
+        <v>1.024430869101796</v>
       </c>
       <c r="N14">
-        <v>1.007555615214166</v>
+        <v>1.011272832234235</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.028346586201546</v>
+        <v>1.029184976324263</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.021315796250805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023236044811606</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016888990393961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9823681914530692</v>
+        <v>0.9848299486435066</v>
       </c>
       <c r="D15">
-        <v>0.9999010441647116</v>
+        <v>1.002566212919502</v>
       </c>
       <c r="E15">
-        <v>0.9925414661099234</v>
+        <v>0.9947143063295321</v>
       </c>
       <c r="F15">
-        <v>1.009116084325188</v>
+        <v>1.010164546170693</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040042115192259</v>
+        <v>1.040882204371121</v>
       </c>
       <c r="J15">
-        <v>1.012337671866491</v>
+        <v>1.014692725132894</v>
       </c>
       <c r="K15">
-        <v>1.014752888903852</v>
+        <v>1.017368236485889</v>
       </c>
       <c r="L15">
-        <v>1.007532705197228</v>
+        <v>1.009664110010189</v>
       </c>
       <c r="M15">
-        <v>1.023797124213893</v>
+        <v>1.024826409392644</v>
       </c>
       <c r="N15">
-        <v>1.007703679921984</v>
+        <v>1.011325841025452</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028721895235099</v>
+        <v>1.029535424090646</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.021577066167195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.023442583044381</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016961061525359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9853021755180041</v>
+        <v>0.9874538087059243</v>
       </c>
       <c r="D16">
-        <v>1.002038304119509</v>
+        <v>1.004360108072363</v>
       </c>
       <c r="E16">
-        <v>0.9948415775284231</v>
+        <v>0.9967411536932692</v>
       </c>
       <c r="F16">
-        <v>1.011027613969191</v>
+        <v>1.011944296479291</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04059153043546</v>
+        <v>1.041325680691337</v>
       </c>
       <c r="J16">
-        <v>1.014032625777551</v>
+        <v>1.016095789488282</v>
       </c>
       <c r="K16">
-        <v>1.016334283774394</v>
+        <v>1.018614635430872</v>
       </c>
       <c r="L16">
-        <v>1.009267644035376</v>
+        <v>1.011132646383319</v>
       </c>
       <c r="M16">
-        <v>1.025164474156548</v>
+        <v>1.026065136206366</v>
       </c>
       <c r="N16">
-        <v>1.008287598538774</v>
+        <v>1.011495168934437</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029763608885492</v>
+        <v>1.030475497005757</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.022698426753692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024327366195751</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017239785899072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9869075830157569</v>
+        <v>0.9889186094061501</v>
       </c>
       <c r="D17">
-        <v>1.003184526964098</v>
+        <v>1.005343650995407</v>
       </c>
       <c r="E17">
-        <v>0.9960731569618707</v>
+        <v>0.99785126707994</v>
       </c>
       <c r="F17">
-        <v>1.01176338427388</v>
+        <v>1.012621510820848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04084540364678</v>
+        <v>1.04153437329442</v>
       </c>
       <c r="J17">
-        <v>1.014878350056487</v>
+        <v>1.016809391938027</v>
       </c>
       <c r="K17">
-        <v>1.017136949333676</v>
+        <v>1.019258630908393</v>
       </c>
       <c r="L17">
-        <v>1.010150390073311</v>
+        <v>1.011897076552606</v>
       </c>
       <c r="M17">
-        <v>1.025568255245625</v>
+        <v>1.026411800072099</v>
       </c>
       <c r="N17">
-        <v>1.008551686772768</v>
+        <v>1.011574792527777</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029952626667241</v>
+        <v>1.030619436308118</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.023268590777269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.024785580770059</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017366484323899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9874656643972901</v>
+        <v>0.9894588958712939</v>
       </c>
       <c r="D18">
-        <v>1.003528939816698</v>
+        <v>1.005660473980587</v>
       </c>
       <c r="E18">
-        <v>0.9964473260596793</v>
+        <v>0.9982141308862224</v>
       </c>
       <c r="F18">
-        <v>1.011379786252116</v>
+        <v>1.012233146419427</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040849847704078</v>
+        <v>1.041537691446666</v>
       </c>
       <c r="J18">
-        <v>1.015010712681429</v>
+        <v>1.016926134653295</v>
       </c>
       <c r="K18">
-        <v>1.01728703592716</v>
+        <v>1.019382210396492</v>
       </c>
       <c r="L18">
-        <v>1.010327666365317</v>
+        <v>1.012063762125173</v>
       </c>
       <c r="M18">
-        <v>1.025004938917516</v>
+        <v>1.025844008727385</v>
       </c>
       <c r="N18">
-        <v>1.008541246983344</v>
+        <v>1.011527382117385</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.029267221966011</v>
+        <v>1.029930634749513</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02336286856619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.024859993874807</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017354895705421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9870786935368028</v>
+        <v>0.9891523623368077</v>
       </c>
       <c r="D19">
-        <v>1.003163961732926</v>
+        <v>1.005380206276227</v>
       </c>
       <c r="E19">
-        <v>0.9960507234147493</v>
+        <v>0.9978937416072623</v>
       </c>
       <c r="F19">
-        <v>1.009887708710059</v>
+        <v>1.010780134105704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040636542230148</v>
+        <v>1.041357723455571</v>
       </c>
       <c r="J19">
-        <v>1.014501359190579</v>
+        <v>1.016494473576071</v>
       </c>
       <c r="K19">
-        <v>1.016864052141224</v>
+        <v>1.019042663513412</v>
       </c>
       <c r="L19">
-        <v>1.009873064956171</v>
+        <v>1.01168419189027</v>
       </c>
       <c r="M19">
-        <v>1.023474282627316</v>
+        <v>1.024351787555497</v>
       </c>
       <c r="N19">
-        <v>1.008293049092084</v>
+        <v>1.011349829029503</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027727357663236</v>
+        <v>1.028421391239934</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023070305901513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.024627047732186</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017225328746875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9839945846555388</v>
+        <v>0.9864300135025301</v>
       </c>
       <c r="D20">
-        <v>1.000749867159478</v>
+        <v>1.003371654278365</v>
       </c>
       <c r="E20">
-        <v>0.9934515095976897</v>
+        <v>0.995621899090909</v>
       </c>
       <c r="F20">
-        <v>1.005394476595583</v>
+        <v>1.006453256547121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039798942431606</v>
+        <v>1.040652716970216</v>
       </c>
       <c r="J20">
-        <v>1.012156742174728</v>
+        <v>1.014494246796297</v>
       </c>
       <c r="K20">
-        <v>1.014779543860337</v>
+        <v>1.017355475171863</v>
       </c>
       <c r="L20">
-        <v>1.007610492020487</v>
+        <v>1.009742171470148</v>
       </c>
       <c r="M20">
-        <v>1.019343129254761</v>
+        <v>1.020383574460914</v>
       </c>
       <c r="N20">
-        <v>1.007361608206947</v>
+        <v>1.010786964340129</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023922607534018</v>
+        <v>1.024746026897493</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.021600436521263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.023438509929124</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016748777150518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9781694704960681</v>
+        <v>0.9812749200463565</v>
       </c>
       <c r="D21">
-        <v>0.9964556982020865</v>
+        <v>0.9998087643289787</v>
       </c>
       <c r="E21">
-        <v>0.9888242505794554</v>
+        <v>0.9915923655008718</v>
       </c>
       <c r="F21">
-        <v>1.00096122394609</v>
+        <v>1.002314568759487</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038619830613089</v>
+        <v>1.039710705142709</v>
       </c>
       <c r="J21">
-        <v>1.008609147297569</v>
+        <v>1.011576940779313</v>
       </c>
       <c r="K21">
-        <v>1.011504531029926</v>
+        <v>1.0147937606349</v>
       </c>
       <c r="L21">
-        <v>1.004020489973495</v>
+        <v>1.006734793202739</v>
       </c>
       <c r="M21">
-        <v>1.015924408499946</v>
+        <v>1.017252223207085</v>
       </c>
       <c r="N21">
-        <v>1.006094435272851</v>
+        <v>1.010397126798257</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.021175225672875</v>
+        <v>1.022226130363409</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.019288105860188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.021630872479542</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016147726752002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.974465130832735</v>
+        <v>0.9780018784133241</v>
       </c>
       <c r="D22">
-        <v>0.9937316763480899</v>
+        <v>0.9975528458416815</v>
       </c>
       <c r="E22">
-        <v>0.9858949654037261</v>
+        <v>0.9890477021199091</v>
       </c>
       <c r="F22">
-        <v>0.9982814046268473</v>
+        <v>0.9998242867139062</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037865240022648</v>
+        <v>1.039109063253423</v>
       </c>
       <c r="J22">
-        <v>1.006368476500239</v>
+        <v>1.009738902892005</v>
       </c>
       <c r="K22">
-        <v>1.009428341161575</v>
+        <v>1.01317293771368</v>
       </c>
       <c r="L22">
-        <v>1.0017511217905</v>
+        <v>1.004839293885874</v>
       </c>
       <c r="M22">
-        <v>1.013886984280224</v>
+        <v>1.01539922532264</v>
       </c>
       <c r="N22">
-        <v>1.005295854287544</v>
+        <v>1.010149187414496</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019562694264147</v>
+        <v>1.020759566722922</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017806302482225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.020469786201755</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015767264339947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9764160591090626</v>
+        <v>0.9797084817863572</v>
       </c>
       <c r="D23">
-        <v>0.995155812351569</v>
+        <v>0.9987163896551919</v>
       </c>
       <c r="E23">
-        <v>0.9874340458606601</v>
+        <v>0.9903681634263094</v>
       </c>
       <c r="F23">
-        <v>0.9996977454754091</v>
+        <v>1.001133261689192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038259784219323</v>
+        <v>1.039416026009157</v>
       </c>
       <c r="J23">
-        <v>1.007541156199923</v>
+        <v>1.010683483399463</v>
       </c>
       <c r="K23">
-        <v>1.010508795843165</v>
+        <v>1.013999915880267</v>
       </c>
       <c r="L23">
-        <v>1.002939924348159</v>
+        <v>1.005815575748324</v>
       </c>
       <c r="M23">
-        <v>1.014962242076304</v>
+        <v>1.016370010001353</v>
       </c>
       <c r="N23">
-        <v>1.005711420032037</v>
+        <v>1.01022950723124</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020413713869374</v>
+        <v>1.021527899090757</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018560412788024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.021043736818813</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015956880827965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9839412998767562</v>
+        <v>0.986388646332005</v>
       </c>
       <c r="D24">
-        <v>1.000683498255344</v>
+        <v>1.003317885107345</v>
       </c>
       <c r="E24">
-        <v>0.993392661641053</v>
+        <v>0.9955743629394853</v>
       </c>
       <c r="F24">
-        <v>1.005177708780837</v>
+        <v>1.006242501810656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039763159748257</v>
+        <v>1.040621869546134</v>
       </c>
       <c r="J24">
-        <v>1.012071844219603</v>
+        <v>1.014420912660602</v>
       </c>
       <c r="K24">
-        <v>1.014698621520963</v>
+        <v>1.017286984422722</v>
       </c>
       <c r="L24">
-        <v>1.007536811680905</v>
+        <v>1.009679646043846</v>
       </c>
       <c r="M24">
-        <v>1.019114504099449</v>
+        <v>1.02016087186171</v>
       </c>
       <c r="N24">
-        <v>1.007320252488348</v>
+        <v>1.010754741902542</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.023700037867089</v>
+        <v>1.024528187197657</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.021515278323868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.023359507293723</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016722289888326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9923054084676426</v>
+        <v>0.9940620778912534</v>
       </c>
       <c r="D25">
-        <v>1.006862468094666</v>
+        <v>1.00866762186746</v>
       </c>
       <c r="E25">
-        <v>1.000047865550689</v>
+        <v>1.001622191577412</v>
       </c>
       <c r="F25">
-        <v>1.011321043035204</v>
+        <v>1.012083483572098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04138048808627</v>
+        <v>1.042006323008421</v>
       </c>
       <c r="J25">
-        <v>1.017094530393987</v>
+        <v>1.018790942681896</v>
       </c>
       <c r="K25">
-        <v>1.019355179020615</v>
+        <v>1.021132857920732</v>
       </c>
       <c r="L25">
-        <v>1.012645438513551</v>
+        <v>1.014195377198001</v>
       </c>
       <c r="M25">
-        <v>1.023746120135866</v>
+        <v>1.024497070889468</v>
       </c>
       <c r="N25">
-        <v>1.009101791203235</v>
+        <v>1.011927164973281</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.027365729673731</v>
+        <v>1.027960067683129</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.024804899321301</v>
+        <v>1.026075576416478</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017631198706648</v>
       </c>
     </row>
   </sheetData>
